--- a/Teste XLSX Sorteios.xlsx
+++ b/Teste XLSX Sorteios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrício\Documents\GitHub\Calendario-Interativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrício\Documents\GitHub\Calendario-Interativo\Calendario-Interativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B16DFCE-62A6-422F-9145-257EC23A6735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C85B6-742B-4540-851C-40E30B1F3F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{BAA7B74D-B37D-48D6-9F12-02412D5A1E60}"/>
   </bookViews>
@@ -84,9 +84,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,15 +122,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,7 +445,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
